--- a/Program/Other/Sharepoint上傳用/測試FT/L5/L5062 L5606/FT_L5062 L5606.xlsx
+++ b/Program/Other/Sharepoint上傳用/測試FT/L5/L5062 L5606/FT_L5062 L5606.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\測試FT\L5\L5062 L5606\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28938B1C-D77C-4666-B629-FFD78665A7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87F55CB-E660-41B6-930E-E56298B8A900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -261,9 +261,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.65.docx</t>
-  </si>
-  <si>
     <t>1.限輸入數字,0表示查詢全部
 2.自動顯示地區別名稱</t>
     <phoneticPr fontId="11" type="noConversion"/>
@@ -275,6 +272,9 @@
   <si>
     <t>1.限輸入文數字,可為空白</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.64.DOCX</t>
   </si>
 </sst>
 </file>
@@ -877,7 +877,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -969,7 +969,7 @@
         <v>30</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
@@ -988,7 +988,7 @@
         <v>17</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>23</v>
@@ -1011,10 +1011,10 @@
         <v>29</v>
       </c>
       <c r="E3" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="25" t="s">
         <v>70</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>71</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="5" t="s">
@@ -1033,7 +1033,7 @@
         <v>17</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>23</v>
@@ -1080,7 +1080,7 @@
         <v>17</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>23</v>
@@ -1127,7 +1127,7 @@
         <v>16</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>23</v>
@@ -1174,7 +1174,7 @@
         <v>16</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>23</v>
@@ -1221,7 +1221,7 @@
         <v>16</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>23</v>
@@ -1268,7 +1268,7 @@
         <v>16</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>23</v>
@@ -1315,7 +1315,7 @@
         <v>16</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
@@ -1364,7 +1364,7 @@
         <v>16</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>23</v>
@@ -1411,7 +1411,7 @@
         <v>16</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>23</v>
@@ -1456,7 +1456,7 @@
         <v>16</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>23</v>
@@ -1501,7 +1501,7 @@
         <v>16</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>23</v>
@@ -1546,7 +1546,7 @@
         <v>16</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>23</v>
@@ -1591,7 +1591,7 @@
         <v>16</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>23</v>
@@ -1636,7 +1636,7 @@
         <v>16</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>23</v>
@@ -1681,7 +1681,7 @@
         <v>16</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>23</v>
@@ -1726,7 +1726,7 @@
         <v>16</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>23</v>
@@ -1771,7 +1771,7 @@
         <v>16</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>

--- a/Program/Other/Sharepoint上傳用/測試FT/L5/L5062 L5606/FT_L5062 L5606.xlsx
+++ b/Program/Other/Sharepoint上傳用/測試FT/L5/L5062 L5606/FT_L5062 L5606.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\測試FT\L5\L5062 L5606\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87F55CB-E660-41B6-930E-E56298B8A900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CD33D1-26C8-4B00-8757-A4DCE412AC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="74">
   <si>
     <t>目錄名稱</t>
   </si>
@@ -266,15 +266,23 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>[輸入欄位]法催人員</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.限輸入文數字,可為空白</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.64.DOCX</t>
+    <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.65.DOCX</t>
+  </si>
+  <si>
+    <t>[輸入欄位]法催人員員編</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>[輸入欄位]法催人員姓名</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.法催人員員編與法催人員姓名可擇一輸入2.限輸入文數字,可為空白</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.限輸入文數字,可為空白,若法催人員員編有值則不需輸入</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -874,7 +882,7 @@
   <sheetPr codeName="工作表2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -988,13 +996,13 @@
         <v>17</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q2" s="11">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1011,10 +1019,10 @@
         <v>29</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="5" t="s">
@@ -1033,13 +1041,13 @@
         <v>17</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q3" s="11">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1047,7 +1055,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>29</v>
@@ -1055,15 +1063,13 @@
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="E4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1080,13 +1086,13 @@
         <v>17</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q4" s="11">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1103,13 +1109,13 @@
         <v>29</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>26</v>
+        <v>40</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>12</v>
@@ -1118,22 +1124,22 @@
         <v>13</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q5" s="11">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1150,10 +1156,10 @@
         <v>29</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>26</v>
@@ -1174,13 +1180,13 @@
         <v>16</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q6" s="11">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1197,10 +1203,10 @@
         <v>29</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>26</v>
@@ -1221,13 +1227,13 @@
         <v>16</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q7" s="11">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1244,10 +1250,10 @@
         <v>29</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>26</v>
@@ -1268,109 +1274,109 @@
         <v>16</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q8" s="11">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="81" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F10" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9" t="s">
+      <c r="M10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q9" s="12">
-        <v>44602</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="81" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>44602</v>
+      <c r="Q10" s="12">
+        <v>44608</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1387,10 +1393,10 @@
         <v>44</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>26</v>
@@ -1405,19 +1411,19 @@
         <v>24</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q11" s="11">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1434,12 +1440,14 @@
         <v>44</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="15"/>
+        <v>59</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="H12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1456,13 +1464,13 @@
         <v>16</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q12" s="11">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1479,10 +1487,10 @@
         <v>44</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="5" t="s">
@@ -1501,13 +1509,13 @@
         <v>16</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q13" s="11">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1524,10 +1532,10 @@
         <v>44</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="5" t="s">
@@ -1546,13 +1554,13 @@
         <v>16</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q14" s="11">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1569,10 +1577,10 @@
         <v>44</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="5" t="s">
@@ -1591,13 +1599,13 @@
         <v>16</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q15" s="11">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1614,10 +1622,10 @@
         <v>44</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="5" t="s">
@@ -1636,13 +1644,13 @@
         <v>16</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q16" s="11">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1659,10 +1667,10 @@
         <v>44</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="5" t="s">
@@ -1681,13 +1689,13 @@
         <v>16</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q17" s="11">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1704,10 +1712,10 @@
         <v>44</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="5" t="s">
@@ -1726,60 +1734,105 @@
         <v>16</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q18" s="11">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="81" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="23" t="s">
+      <c r="C19" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F20" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="10" t="s">
+      <c r="G20" s="20"/>
+      <c r="H20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M19" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9" t="s">
+      <c r="M20" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q19" s="12">
-        <v>44602</v>
+      <c r="Q20" s="12">
+        <v>44608</v>
       </c>
     </row>
   </sheetData>
